--- a/manuscript/tables_figures/Table4.xlsx
+++ b/manuscript/tables_figures/Table4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kteixeira/Dropbox (Smithsonian)/GitHub/SCBI-ForestGEO/McGregor_climate-sensitivity-variation/manuscript/tables_figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B648BBE-CC5F-CC49-8884-B938C0301698}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C12856-6645-604B-A65C-6100057661BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19220" xr2:uid="{CEAF6856-360D-489D-958B-5830D64CE7C9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{CEAF6856-360D-489D-958B-5830D64CE7C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>dAICc</t>
   </si>
@@ -118,13 +118,16 @@
   </si>
   <si>
     <t>all droughts</t>
+  </si>
+  <si>
+    <t>red indicates content that have not been updated since model change</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +147,26 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -210,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -239,21 +262,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1D0661-A55A-4DBE-8906-DA10AD6CFB77}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O25"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -598,25 +634,25 @@
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="9"/>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="16"/>
       <c r="J2" s="9"/>
-      <c r="K2" s="15">
+      <c r="K2" s="16">
         <v>1977</v>
       </c>
-      <c r="L2" s="15"/>
+      <c r="L2" s="16"/>
       <c r="M2" s="9"/>
-      <c r="N2" s="15">
+      <c r="N2" s="16">
         <v>1999</v>
       </c>
-      <c r="O2" s="15"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -666,8 +702,8 @@
         <v>29</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="16">
-        <v>35.834000000000003</v>
+      <c r="E4" s="11">
+        <v>-2.4180000000000001</v>
       </c>
       <c r="F4" s="11">
         <v>0</v>
@@ -691,7 +727,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11">
-        <v>-0.09</v>
+        <v>-2.0899999999999998E-2</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -712,7 +748,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11">
-        <v>-8.1000000000000003E-2</v>
+        <v>-1.0500000000000001E-2</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -733,32 +769,32 @@
       <c r="D7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="17">
-        <v>7.4109999999999996</v>
+      <c r="E7" s="15">
+        <v>8.17</v>
       </c>
       <c r="F7" s="12">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="17">
-        <v>18.276</v>
+        <v>-3.85E-2</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="15">
+        <v>15.32</v>
       </c>
       <c r="I7" s="12">
-        <v>-8.2000000000000003E-2</v>
+        <v>-8.8800000000000004E-2</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12">
-        <v>-0.94699999999999995</v>
+        <v>-0.86599999999999999</v>
       </c>
       <c r="L7" s="12">
-        <v>-2.1000000000000001E-2</v>
+        <v>-2.1399999999999999E-2</v>
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="12">
-        <v>-1.9179999999999999</v>
+        <v>-1.9259999999999999</v>
       </c>
       <c r="O7" s="12">
-        <v>6.0000000000000001E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -770,32 +806,32 @@
       <c r="D8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="16">
-        <v>7.5910000000000002</v>
+      <c r="E8" s="14">
+        <v>8.8000000000000007</v>
       </c>
       <c r="F8" s="11">
-        <v>-5.8000000000000003E-2</v>
+        <v>-6.4799999999999996E-2</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="16">
-        <v>17.788</v>
+      <c r="H8" s="14">
+        <v>15.271000000000001</v>
       </c>
       <c r="I8" s="11">
-        <v>-0.13300000000000001</v>
+        <v>-0.14430000000000001</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11">
-        <v>-1.077</v>
+        <v>-0.97699999999999998</v>
       </c>
       <c r="L8" s="11">
-        <v>-3.2000000000000001E-2</v>
+        <v>-3.3500000000000002E-2</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11">
-        <v>-2.0219999999999998</v>
+        <v>-2.0249999999999999</v>
       </c>
       <c r="O8" s="11">
-        <v>2E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -810,31 +846,31 @@
         <v>2</v>
       </c>
       <c r="E9" s="12">
-        <v>-1.46</v>
+        <v>-2.9620000000000002</v>
       </c>
       <c r="F9" s="12">
-        <v>-5.1999999999999998E-2</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="17">
-        <v>4.4870000000000001</v>
+        <v>-4.6100000000000002E-2</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="15">
+        <v>3.254</v>
       </c>
       <c r="I9" s="12">
-        <v>-6.7000000000000004E-2</v>
-      </c>
-      <c r="J9" s="12"/>
+        <v>-5.0900000000000001E-2</v>
+      </c>
+      <c r="J9" s="18"/>
       <c r="K9" s="12">
-        <v>0.15</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="L9" s="12">
-        <v>-7.8E-2</v>
-      </c>
-      <c r="M9" s="12"/>
+        <v>-7.5899999999999995E-2</v>
+      </c>
+      <c r="M9" s="18"/>
       <c r="N9" s="12">
-        <v>0.44400000000000001</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="O9" s="12">
-        <v>-1.0999999999999999E-2</v>
+        <v>-1.03E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -846,21 +882,21 @@
         <v>8</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="12"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="12">
         <v>0</v>
       </c>
-      <c r="G10" s="12"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12">
         <v>0</v>
       </c>
-      <c r="J10" s="12"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12">
         <v>0</v>
       </c>
-      <c r="M10" s="12"/>
+      <c r="M10" s="18"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12">
         <v>0</v>
@@ -873,24 +909,24 @@
         <v>9</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="12"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="12">
-        <v>-1.0999999999999999E-2</v>
-      </c>
-      <c r="G11" s="12"/>
+        <v>-6.3E-3</v>
+      </c>
+      <c r="G11" s="18"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="J11" s="12"/>
+        <v>7.3200000000000001E-2</v>
+      </c>
+      <c r="J11" s="18"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12">
-        <v>-2.8000000000000001E-2</v>
-      </c>
-      <c r="M11" s="12"/>
+        <v>-2.98E-2</v>
+      </c>
+      <c r="M11" s="18"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12">
-        <v>-5.6000000000000001E-2</v>
+        <v>-5.6300000000000003E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -900,24 +936,24 @@
         <v>10</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="12"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="12">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G12" s="12"/>
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="G12" s="18"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="J12" s="12"/>
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="J12" s="18"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="M12" s="12"/>
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="M12" s="18"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12">
-        <v>-4.9000000000000002E-2</v>
+        <v>-4.8300000000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -932,31 +968,31 @@
         <v>5</v>
       </c>
       <c r="E13" s="11">
-        <v>1.6819999999999999</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F13" s="11">
-        <v>-4.3999999999999997E-2</v>
-      </c>
-      <c r="G13" s="11"/>
+        <v>-3.6400000000000002E-2</v>
+      </c>
+      <c r="G13" s="20"/>
       <c r="H13" s="11">
-        <v>-2.548</v>
+        <v>-1.413</v>
       </c>
       <c r="I13" s="11">
-        <v>-5.5E-2</v>
-      </c>
-      <c r="J13" s="11"/>
+        <v>-3.5900000000000001E-2</v>
+      </c>
+      <c r="J13" s="20"/>
       <c r="K13" s="11">
-        <v>-0.7</v>
+        <v>-0.23899999999999999</v>
       </c>
       <c r="L13" s="11">
-        <v>-7.5999999999999998E-2</v>
-      </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="16">
-        <v>4.0869999999999997</v>
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="M13" s="20"/>
+      <c r="N13" s="14">
+        <v>3.9860000000000002</v>
       </c>
       <c r="O13" s="11">
-        <v>-3.0000000000000001E-3</v>
+        <v>-2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -968,21 +1004,21 @@
         <v>8</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="11"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="11">
         <v>0</v>
       </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11">
         <v>0</v>
       </c>
-      <c r="J14" s="11"/>
+      <c r="J14" s="20"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11">
         <v>0</v>
       </c>
-      <c r="M14" s="11"/>
+      <c r="M14" s="20"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11">
         <v>0</v>
@@ -995,24 +1031,24 @@
         <v>9</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="11"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="11">
-        <v>-4.2000000000000003E-2</v>
-      </c>
-      <c r="G15" s="11"/>
+        <v>-4.0599999999999997E-2</v>
+      </c>
+      <c r="G15" s="20"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="J15" s="11"/>
+        <v>1.77E-2</v>
+      </c>
+      <c r="J15" s="20"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11">
-        <v>-3.3000000000000002E-2</v>
-      </c>
-      <c r="M15" s="11"/>
+        <v>-3.6299999999999999E-2</v>
+      </c>
+      <c r="M15" s="20"/>
       <c r="N15" s="11"/>
       <c r="O15" s="13">
-        <v>-8.2000000000000003E-2</v>
+        <v>-8.2299999999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1022,24 +1058,24 @@
         <v>10</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="11"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="11">
-        <v>-5.2999999999999999E-2</v>
-      </c>
-      <c r="G16" s="11"/>
+        <v>-5.8599999999999999E-2</v>
+      </c>
+      <c r="G16" s="20"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11">
-        <v>-4.3999999999999997E-2</v>
-      </c>
-      <c r="J16" s="11"/>
+        <v>-6.54E-2</v>
+      </c>
+      <c r="J16" s="20"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="M16" s="11"/>
+        <v>0.03</v>
+      </c>
+      <c r="M16" s="20"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11">
-        <v>-0.10199999999999999</v>
+        <v>-0.1011</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1054,28 +1090,28 @@
       <c r="E17" s="17">
         <v>2.88</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="18">
         <v>-6.8000000000000005E-2</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12">
+      <c r="G17" s="18"/>
+      <c r="H17" s="18">
         <v>-1.2809999999999999</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="18">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J17" s="12"/>
+      <c r="J17" s="18"/>
       <c r="K17" s="17">
         <v>4.7279999999999998</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="18">
         <v>-0.13800000000000001</v>
       </c>
-      <c r="M17" s="12"/>
+      <c r="M17" s="18"/>
       <c r="N17" s="17">
         <v>2.621</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="18">
         <v>-0.10100000000000001</v>
       </c>
     </row>
@@ -1089,31 +1125,31 @@
         <v>6</v>
       </c>
       <c r="E18" s="13">
-        <v>-2.0179999999999998</v>
+        <v>-1.1819999999999999</v>
       </c>
       <c r="F18" s="11">
-        <v>-5.0000000000000001E-3</v>
+        <v>6.7699999999999996E-2</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11">
-        <v>3.5000000000000003E-2</v>
+        <v>-1.75</v>
       </c>
       <c r="I18" s="11">
-        <v>-0.17399999999999999</v>
+        <v>7.4899999999999994E-2</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11">
-        <v>-1.7669999999999999</v>
+        <v>-1.8620000000000001</v>
       </c>
       <c r="L18" s="11">
-        <v>0.06</v>
+        <v>5.33E-2</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="11">
-        <v>-1.7849999999999999</v>
+        <v>-1.7929999999999999</v>
       </c>
       <c r="O18" s="11">
-        <v>5.7000000000000002E-2</v>
+        <v>5.6599999999999998E-2</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1125,31 +1161,31 @@
       <c r="D19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="18">
         <v>-2.0179999999999998</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="18">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12">
+      <c r="G19" s="18"/>
+      <c r="H19" s="18">
         <v>-1.96</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="18">
         <v>-4.9000000000000002E-2</v>
       </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12">
+      <c r="J19" s="18"/>
+      <c r="K19" s="18">
         <v>-1.236</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="18">
         <v>-0.17499999999999999</v>
       </c>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12">
+      <c r="M19" s="18"/>
+      <c r="N19" s="18">
         <v>0.17100000000000001</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="18">
         <v>0.247</v>
       </c>
     </row>
@@ -1162,31 +1198,31 @@
       <c r="D20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="20">
         <v>-1.895</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="20">
         <v>1E-3</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11">
+      <c r="G20" s="20"/>
+      <c r="H20" s="20">
         <v>-1.075</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="20">
         <v>2E-3</v>
       </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11">
+      <c r="J20" s="20"/>
+      <c r="K20" s="20">
         <v>-1.698</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="20">
         <v>-1E-3</v>
       </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11">
+      <c r="M20" s="20"/>
+      <c r="N20" s="20">
         <v>-1.9850000000000001</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="20">
         <v>1E-4</v>
       </c>
     </row>
@@ -1201,31 +1237,31 @@
       <c r="D21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="18">
         <v>-3.5529999999999999</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="18">
         <v>0.04</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12">
+      <c r="G21" s="18"/>
+      <c r="H21" s="18">
         <v>-2.161</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="18">
         <v>0.10100000000000001</v>
       </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12">
+      <c r="J21" s="18"/>
+      <c r="K21" s="18">
         <v>0.89500000000000002</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="18">
         <v>-0.19</v>
       </c>
-      <c r="M21" s="12"/>
+      <c r="M21" s="18"/>
       <c r="N21" s="17">
         <v>4.0830000000000002</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="18">
         <v>0.2</v>
       </c>
     </row>
@@ -1236,23 +1272,23 @@
         <v>12</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12">
+      <c r="E22" s="18"/>
+      <c r="F22" s="18">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12">
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12">
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18">
         <v>-0.14699999999999999</v>
       </c>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12">
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18">
         <v>0.151</v>
       </c>
     </row>
@@ -1263,25 +1299,25 @@
         <v>27</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12">
-        <v>0</v>
-      </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12">
-        <v>0</v>
-      </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12">
-        <v>0</v>
-      </c>
-      <c r="L23" s="12">
-        <v>0</v>
-      </c>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12">
+      <c r="E23" s="18"/>
+      <c r="F23" s="18">
+        <v>0</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18">
+        <v>0</v>
+      </c>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18">
+        <v>0</v>
+      </c>
+      <c r="L23" s="18">
+        <v>0</v>
+      </c>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1294,31 +1330,31 @@
       <c r="D24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="19">
         <v>4.58</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="20">
         <v>-0.20699999999999999</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11">
+      <c r="G24" s="20"/>
+      <c r="H24" s="20">
         <v>1.3520000000000001</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="20">
         <v>-0.217</v>
       </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11">
+      <c r="J24" s="20"/>
+      <c r="K24" s="20">
         <v>1.008</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="20">
         <v>-0.23599999999999999</v>
       </c>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11">
+      <c r="M24" s="20"/>
+      <c r="N24" s="20">
         <v>0.13200000000000001</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="20">
         <v>-0.17699999999999999</v>
       </c>
     </row>
@@ -1331,32 +1367,37 @@
       <c r="D25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="21">
         <v>4.4130000000000003</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="22">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="18">
+      <c r="G25" s="22"/>
+      <c r="H25" s="21">
         <v>5.8250000000000002</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="22">
         <v>-1.6E-2</v>
       </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14">
+      <c r="J25" s="22"/>
+      <c r="K25" s="22">
         <v>-0.19</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L25" s="22">
         <v>-0.01</v>
       </c>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14">
+      <c r="M25" s="22"/>
+      <c r="N25" s="22">
         <v>-0.70099999999999996</v>
       </c>
-      <c r="O25" s="14">
+      <c r="O25" s="22">
         <v>-7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="E29" s="23" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/manuscript/tables_figures/Table4.xlsx
+++ b/manuscript/tables_figures/Table4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kteixeira/Dropbox (Smithsonian)/GitHub/SCBI-ForestGEO/McGregor_climate-sensitivity-variation/manuscript/tables_figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C12856-6645-604B-A65C-6100057661BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2952FC-88F9-BC47-AD1A-974F69CB7D03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{CEAF6856-360D-489D-958B-5830D64CE7C9}"/>
   </bookViews>
@@ -607,7 +607,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+      <selection activeCell="K21" sqref="K21:L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1087,32 +1087,32 @@
       <c r="D17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="17">
-        <v>2.88</v>
-      </c>
-      <c r="F17" s="18">
-        <v>-6.8000000000000005E-2</v>
-      </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18">
-        <v>-1.2809999999999999</v>
-      </c>
-      <c r="I17" s="18">
-        <v>4.4999999999999998E-2</v>
+      <c r="E17" s="15">
+        <v>5.3319999999999999</v>
+      </c>
+      <c r="F17" s="12">
+        <v>-8.8599999999999998E-2</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12">
+        <v>-1.9630000000000001</v>
+      </c>
+      <c r="I17" s="12">
+        <v>-1.6799999999999999E-2</v>
       </c>
       <c r="J17" s="18"/>
-      <c r="K17" s="17">
-        <v>4.7279999999999998</v>
-      </c>
-      <c r="L17" s="18">
-        <v>-0.13800000000000001</v>
-      </c>
-      <c r="M17" s="18"/>
-      <c r="N17" s="17">
-        <v>2.621</v>
-      </c>
-      <c r="O17" s="18">
-        <v>-0.10100000000000001</v>
+      <c r="K17" s="15">
+        <v>5.0640000000000001</v>
+      </c>
+      <c r="L17" s="12">
+        <v>-0.1406</v>
+      </c>
+      <c r="M17" s="12"/>
+      <c r="N17" s="15">
+        <v>2.72</v>
+      </c>
+      <c r="O17" s="12">
+        <v>-0.10249999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1237,25 +1237,25 @@
       <c r="D21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="18">
-        <v>-3.5529999999999999</v>
-      </c>
-      <c r="F21" s="18">
-        <v>0.04</v>
+      <c r="E21" s="12">
+        <v>-2.4</v>
+      </c>
+      <c r="F21" s="12">
+        <v>5.74E-2</v>
       </c>
       <c r="G21" s="18"/>
-      <c r="H21" s="18">
-        <v>-2.161</v>
-      </c>
-      <c r="I21" s="18">
-        <v>0.10100000000000001</v>
+      <c r="H21" s="12">
+        <v>1.7769999999999999</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0.151</v>
       </c>
       <c r="J21" s="18"/>
-      <c r="K21" s="18">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="L21" s="18">
-        <v>-0.19</v>
+      <c r="K21" s="12">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="L21" s="12">
+        <v>-0.18790000000000001</v>
       </c>
       <c r="M21" s="18"/>
       <c r="N21" s="17">
@@ -1273,18 +1273,18 @@
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="18"/>
-      <c r="F22" s="18">
-        <v>1.2999999999999999E-2</v>
+      <c r="F22" s="12">
+        <v>-3.3500000000000002E-2</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
-      <c r="I22" s="18">
-        <v>1.4999999999999999E-2</v>
+      <c r="I22" s="12">
+        <v>-0.13239999999999999</v>
       </c>
       <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18">
-        <v>-0.14699999999999999</v>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12">
+        <v>-0.1426</v>
       </c>
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
@@ -1300,19 +1300,17 @@
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="18"/>
-      <c r="F23" s="18">
+      <c r="F23" s="12">
         <v>0</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
-      <c r="I23" s="18">
+      <c r="I23" s="12">
         <v>0</v>
       </c>
       <c r="J23" s="18"/>
-      <c r="K23" s="18">
-        <v>0</v>
-      </c>
-      <c r="L23" s="18">
+      <c r="K23" s="12"/>
+      <c r="L23" s="12">
         <v>0</v>
       </c>
       <c r="M23" s="18"/>

--- a/manuscript/tables_figures/Table4.xlsx
+++ b/manuscript/tables_figures/Table4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kteixeira/Dropbox (Smithsonian)/GitHub/SCBI-ForestGEO/McGregor_climate-sensitivity-variation/manuscript/tables_figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2952FC-88F9-BC47-AD1A-974F69CB7D03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4AC078-DB97-D94B-9F9B-EEA1C6B9537E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{CEAF6856-360D-489D-958B-5830D64CE7C9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>dAICc</t>
   </si>
@@ -114,20 +114,14 @@
     <t xml:space="preserve">drought year </t>
   </si>
   <si>
-    <t>1964-66</t>
-  </si>
-  <si>
     <t>all droughts</t>
-  </si>
-  <si>
-    <t>red indicates content that have not been updated since model change</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,13 +139,6 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFC00000"/>
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
@@ -233,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -262,10 +249,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -274,22 +258,37 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,7 +606,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21:L23"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -634,25 +633,25 @@
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="16"/>
+      <c r="E2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="15"/>
       <c r="G2" s="9"/>
-      <c r="H2" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="16"/>
+      <c r="H2" s="15">
+        <v>1966</v>
+      </c>
+      <c r="I2" s="15"/>
       <c r="J2" s="9"/>
-      <c r="K2" s="16">
+      <c r="K2" s="15">
         <v>1977</v>
       </c>
-      <c r="L2" s="16"/>
+      <c r="L2" s="15"/>
       <c r="M2" s="9"/>
-      <c r="N2" s="16">
+      <c r="N2" s="15">
         <v>1999</v>
       </c>
-      <c r="O2" s="16"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -698,24 +697,24 @@
       <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
+      <c r="C4" s="3">
+        <v>1966</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="11">
+      <c r="E4" s="19">
         <v>-2.4180000000000001</v>
       </c>
       <c r="F4" s="11">
         <v>0</v>
       </c>
       <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="K4" s="19"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
+      <c r="N4" s="19"/>
       <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -725,18 +724,18 @@
         <v>1977</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="11"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="11">
         <v>-2.0899999999999998E-2</v>
       </c>
       <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="K5" s="19"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
+      <c r="N5" s="19"/>
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -746,18 +745,18 @@
         <v>1999</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="11"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="11">
         <v>-1.0500000000000001E-2</v>
       </c>
       <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
+      <c r="N6" s="19"/>
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -769,28 +768,28 @@
       <c r="D7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="20">
         <v>8.17</v>
       </c>
       <c r="F7" s="12">
         <v>-3.85E-2</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="15">
+      <c r="G7" s="16"/>
+      <c r="H7" s="20">
         <v>15.32</v>
       </c>
       <c r="I7" s="12">
         <v>-8.8800000000000004E-2</v>
       </c>
       <c r="J7" s="12"/>
-      <c r="K7" s="12">
+      <c r="K7" s="22">
         <v>-0.86599999999999999</v>
       </c>
       <c r="L7" s="12">
         <v>-2.1399999999999999E-2</v>
       </c>
       <c r="M7" s="12"/>
-      <c r="N7" s="12">
+      <c r="N7" s="22">
         <v>-1.9259999999999999</v>
       </c>
       <c r="O7" s="12">
@@ -806,28 +805,28 @@
       <c r="D8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="21">
         <v>8.8000000000000007</v>
       </c>
       <c r="F8" s="11">
         <v>-6.4799999999999996E-2</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="14">
+      <c r="H8" s="21">
         <v>15.271000000000001</v>
       </c>
       <c r="I8" s="11">
         <v>-0.14430000000000001</v>
       </c>
       <c r="J8" s="11"/>
-      <c r="K8" s="11">
+      <c r="K8" s="19">
         <v>-0.97699999999999998</v>
       </c>
       <c r="L8" s="11">
         <v>-3.3500000000000002E-2</v>
       </c>
       <c r="M8" s="11"/>
-      <c r="N8" s="11">
+      <c r="N8" s="19">
         <v>-2.0249999999999999</v>
       </c>
       <c r="O8" s="11">
@@ -845,28 +844,28 @@
       <c r="D9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="22">
         <v>-2.9620000000000002</v>
       </c>
       <c r="F9" s="12">
         <v>-4.6100000000000002E-2</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="15">
+      <c r="G9" s="16"/>
+      <c r="H9" s="20">
         <v>3.254</v>
       </c>
       <c r="I9" s="12">
         <v>-5.0900000000000001E-2</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="12">
+      <c r="J9" s="16"/>
+      <c r="K9" s="22">
         <v>0.65700000000000003</v>
       </c>
       <c r="L9" s="12">
         <v>-7.5899999999999995E-2</v>
       </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="12">
+      <c r="M9" s="16"/>
+      <c r="N9" s="22">
         <v>0.38200000000000001</v>
       </c>
       <c r="O9" s="12">
@@ -882,22 +881,22 @@
         <v>8</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="18"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="12">
         <v>0</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="12"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="12">
         <v>0</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="12"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="22"/>
       <c r="L10" s="12">
         <v>0</v>
       </c>
-      <c r="M10" s="18"/>
-      <c r="N10" s="12"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="22"/>
       <c r="O10" s="12">
         <v>0</v>
       </c>
@@ -909,22 +908,22 @@
         <v>9</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="18"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="12">
         <v>-6.3E-3</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="12"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="12">
         <v>7.3200000000000001E-2</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="12"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="12">
         <v>-2.98E-2</v>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="12"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="22"/>
       <c r="O11" s="12">
         <v>-5.6300000000000003E-2</v>
       </c>
@@ -936,22 +935,22 @@
         <v>10</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="18"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="12">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="12"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="12">
         <v>5.2600000000000001E-2</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="12"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="12">
         <v>4.3200000000000002E-2</v>
       </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="12"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="22"/>
       <c r="O12" s="12">
         <v>-4.8300000000000003E-2</v>
       </c>
@@ -967,28 +966,28 @@
       <c r="D13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="19">
         <v>0.55000000000000004</v>
       </c>
       <c r="F13" s="11">
         <v>-3.6400000000000002E-2</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="11">
+      <c r="G13" s="17"/>
+      <c r="H13" s="19">
         <v>-1.413</v>
       </c>
       <c r="I13" s="11">
         <v>-3.5900000000000001E-2</v>
       </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="11">
+      <c r="J13" s="17"/>
+      <c r="K13" s="19">
         <v>-0.23899999999999999</v>
       </c>
       <c r="L13" s="11">
         <v>-7.3999999999999996E-2</v>
       </c>
-      <c r="M13" s="20"/>
-      <c r="N13" s="14">
+      <c r="M13" s="17"/>
+      <c r="N13" s="21">
         <v>3.9860000000000002</v>
       </c>
       <c r="O13" s="11">
@@ -1004,22 +1003,22 @@
         <v>8</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="20"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="11">
         <v>0</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="11"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="19"/>
       <c r="I14" s="11">
         <v>0</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="11"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="19"/>
       <c r="L14" s="11">
         <v>0</v>
       </c>
-      <c r="M14" s="20"/>
-      <c r="N14" s="11"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="19"/>
       <c r="O14" s="11">
         <v>0</v>
       </c>
@@ -1031,22 +1030,22 @@
         <v>9</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="20"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="11">
         <v>-4.0599999999999997E-2</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="11"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="11">
         <v>1.77E-2</v>
       </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="11"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="19"/>
       <c r="L15" s="11">
         <v>-3.6299999999999999E-2</v>
       </c>
-      <c r="M15" s="20"/>
-      <c r="N15" s="11"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="19"/>
       <c r="O15" s="13">
         <v>-8.2299999999999998E-2</v>
       </c>
@@ -1058,22 +1057,22 @@
         <v>10</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="20"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="11">
         <v>-5.8599999999999999E-2</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="11"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="11">
         <v>-6.54E-2</v>
       </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="11"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="19"/>
       <c r="L16" s="11">
         <v>0.03</v>
       </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="11"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="19"/>
       <c r="O16" s="11">
         <v>-0.1011</v>
       </c>
@@ -1087,28 +1086,28 @@
       <c r="D17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="20">
         <v>5.3319999999999999</v>
       </c>
       <c r="F17" s="12">
         <v>-8.8599999999999998E-2</v>
       </c>
       <c r="G17" s="12"/>
-      <c r="H17" s="12">
+      <c r="H17" s="22">
         <v>-1.9630000000000001</v>
       </c>
       <c r="I17" s="12">
         <v>-1.6799999999999999E-2</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="15">
+      <c r="J17" s="16"/>
+      <c r="K17" s="20">
         <v>5.0640000000000001</v>
       </c>
       <c r="L17" s="12">
         <v>-0.1406</v>
       </c>
       <c r="M17" s="12"/>
-      <c r="N17" s="15">
+      <c r="N17" s="20">
         <v>2.72</v>
       </c>
       <c r="O17" s="12">
@@ -1124,28 +1123,28 @@
       <c r="D18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="25">
         <v>-1.1819999999999999</v>
       </c>
       <c r="F18" s="11">
         <v>6.7699999999999996E-2</v>
       </c>
       <c r="G18" s="11"/>
-      <c r="H18" s="11">
+      <c r="H18" s="19">
         <v>-1.75</v>
       </c>
       <c r="I18" s="11">
         <v>7.4899999999999994E-2</v>
       </c>
       <c r="J18" s="11"/>
-      <c r="K18" s="11">
+      <c r="K18" s="19">
         <v>-1.8620000000000001</v>
       </c>
       <c r="L18" s="11">
         <v>5.33E-2</v>
       </c>
       <c r="M18" s="11"/>
-      <c r="N18" s="11">
+      <c r="N18" s="19">
         <v>-1.7929999999999999</v>
       </c>
       <c r="O18" s="11">
@@ -1161,32 +1160,32 @@
       <c r="D19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="18">
-        <v>-2.0179999999999998</v>
-      </c>
-      <c r="F19" s="18">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18">
-        <v>-1.96</v>
-      </c>
-      <c r="I19" s="18">
-        <v>-4.9000000000000002E-2</v>
-      </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18">
-        <v>-1.236</v>
-      </c>
-      <c r="L19" s="18">
-        <v>-0.17499999999999999</v>
-      </c>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="O19" s="18">
-        <v>0.247</v>
+      <c r="E19" s="22">
+        <v>-1.8859999999999999</v>
+      </c>
+      <c r="F19" s="12">
+        <v>-4.9799999999999997E-2</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="22">
+        <v>-1.1040000000000001</v>
+      </c>
+      <c r="I19" s="12">
+        <v>-0.21609999999999999</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="22">
+        <v>-1.1870000000000001</v>
+      </c>
+      <c r="L19" s="12">
+        <v>-0.1827</v>
+      </c>
+      <c r="M19" s="12"/>
+      <c r="N19" s="22">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="O19" s="12">
+        <v>0.25119999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1198,32 +1197,32 @@
       <c r="D20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="20">
-        <v>-1.895</v>
-      </c>
-      <c r="F20" s="20">
-        <v>1E-3</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20">
-        <v>-1.075</v>
-      </c>
-      <c r="I20" s="20">
-        <v>2E-3</v>
-      </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20">
-        <v>-1.698</v>
-      </c>
-      <c r="L20" s="20">
-        <v>-1E-3</v>
-      </c>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20">
-        <v>-1.9850000000000001</v>
-      </c>
-      <c r="O20" s="20">
-        <v>1E-4</v>
+      <c r="E20" s="19">
+        <v>-1.996</v>
+      </c>
+      <c r="F20" s="11">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="19">
+        <v>-1.891</v>
+      </c>
+      <c r="I20" s="11">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="19">
+        <v>-1.7390000000000001</v>
+      </c>
+      <c r="L20" s="11">
+        <v>-1.4E-3</v>
+      </c>
+      <c r="M20" s="11"/>
+      <c r="N20" s="19">
+        <v>-1.9910000000000001</v>
+      </c>
+      <c r="O20" s="11">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1237,32 +1236,32 @@
       <c r="D21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="22">
         <v>-2.4</v>
       </c>
       <c r="F21" s="12">
         <v>5.74E-2</v>
       </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="12">
+      <c r="G21" s="16"/>
+      <c r="H21" s="22">
         <v>1.7769999999999999</v>
       </c>
       <c r="I21" s="12">
         <v>0.151</v>
       </c>
-      <c r="J21" s="18"/>
-      <c r="K21" s="12">
+      <c r="J21" s="16"/>
+      <c r="K21" s="22">
         <v>0.58499999999999996</v>
       </c>
       <c r="L21" s="12">
         <v>-0.18790000000000001</v>
       </c>
-      <c r="M21" s="18"/>
-      <c r="N21" s="17">
-        <v>4.0830000000000002</v>
-      </c>
-      <c r="O21" s="18">
-        <v>0.2</v>
+      <c r="M21" s="16"/>
+      <c r="N21" s="20">
+        <v>4.2460000000000004</v>
+      </c>
+      <c r="O21" s="12">
+        <v>0.20250000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1272,24 +1271,24 @@
         <v>12</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="18"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="12">
         <v>-3.3500000000000002E-2</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="23"/>
       <c r="I22" s="12">
         <v>-0.13239999999999999</v>
       </c>
-      <c r="J22" s="18"/>
-      <c r="K22" s="12"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="22"/>
       <c r="L22" s="12">
         <v>-0.1426</v>
       </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18">
-        <v>0.151</v>
+      <c r="M22" s="16"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="12">
+        <v>0.15160000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1299,23 +1298,23 @@
         <v>27</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="18"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="12">
         <v>0</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="12">
         <v>0</v>
       </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="12"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="22"/>
       <c r="L23" s="12">
         <v>0</v>
       </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18">
+      <c r="M23" s="16"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1329,31 +1328,31 @@
         <v>5</v>
       </c>
       <c r="E24" s="19">
-        <v>4.58</v>
-      </c>
-      <c r="F24" s="20">
-        <v>-0.20699999999999999</v>
-      </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20">
-        <v>1.3520000000000001</v>
-      </c>
-      <c r="I24" s="20">
-        <v>-0.217</v>
-      </c>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20">
-        <v>1.008</v>
-      </c>
-      <c r="L24" s="20">
-        <v>-0.23599999999999999</v>
-      </c>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="O24" s="20">
-        <v>-0.17699999999999999</v>
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="F24" s="11">
+        <v>-0.16750000000000001</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="19">
+        <v>-1.776</v>
+      </c>
+      <c r="I24" s="11">
+        <v>-8.4500000000000006E-2</v>
+      </c>
+      <c r="J24" s="11"/>
+      <c r="K24" s="19">
+        <v>1.1439999999999999</v>
+      </c>
+      <c r="L24" s="11">
+        <v>-0.2432</v>
+      </c>
+      <c r="M24" s="11"/>
+      <c r="N24" s="19">
+        <v>5.5E-2</v>
+      </c>
+      <c r="O24" s="11">
+        <v>-0.1749</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1365,38 +1364,36 @@
       <c r="D25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="21">
-        <v>4.4130000000000003</v>
-      </c>
-      <c r="F25" s="22">
-        <v>-1.0999999999999999E-2</v>
-      </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="21">
-        <v>5.8250000000000002</v>
-      </c>
-      <c r="I25" s="22">
-        <v>-1.6E-2</v>
-      </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22">
-        <v>-0.19</v>
-      </c>
-      <c r="L25" s="22">
-        <v>-0.01</v>
-      </c>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22">
-        <v>-0.70099999999999996</v>
-      </c>
-      <c r="O25" s="22">
-        <v>-7.0000000000000001E-3</v>
+      <c r="E25" s="26">
+        <v>7.8879999999999999</v>
+      </c>
+      <c r="F25" s="14">
+        <v>-1.38E-2</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="26">
+        <v>9.82</v>
+      </c>
+      <c r="I25" s="14">
+        <v>-2.4400000000000002E-2</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="27">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+      <c r="L25" s="14">
+        <v>-1.04E-2</v>
+      </c>
+      <c r="M25" s="14"/>
+      <c r="N25" s="27">
+        <v>-0.72499999999999998</v>
+      </c>
+      <c r="O25" s="14">
+        <v>-7.4000000000000003E-3</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="E29" s="23" t="s">
-        <v>31</v>
-      </c>
+      <c r="E29" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
